--- a/DEAR_DONG/LAB1/00_spec/wrapper_io.xlsx
+++ b/DEAR_DONG/LAB1/00_spec/wrapper_io.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t xml:space="preserve">I/O</t>
   </si>
@@ -127,9 +127,6 @@
     <t xml:space="preserve">SW1</t>
   </si>
   <si>
-    <t xml:space="preserve">Type noise</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sin (default)</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
     <t xml:space="preserve">Adjust waveform frequency</t>
   </si>
   <si>
+    <t xml:space="preserve">Start signal</t>
+  </si>
+  <si>
     <t xml:space="preserve">BTN2</t>
   </si>
   <si>
@@ -167,6 +167,57 @@
   </si>
   <si>
     <t xml:space="preserve">Adjust noise frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode Select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waveform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode Wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select adjust size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjust amplitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjust frequency</t>
   </si>
 </sst>
 </file>
@@ -176,11 +227,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -196,6 +248,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -263,20 +322,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -356,15 +415,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.95"/>
   </cols>
@@ -389,10 +448,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -403,70 +462,70 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -474,10 +533,10 @@
       <c r="C11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -488,8 +547,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
@@ -498,8 +557,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
@@ -508,10 +567,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
@@ -520,8 +579,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
@@ -530,10 +589,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -542,8 +601,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
@@ -552,8 +611,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
@@ -565,151 +624,133 @@
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6" t="n">
+      <c r="D22" s="4"/>
+      <c r="E22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="G23" s="2"/>
+      <c r="D23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4"/>
+      <c r="F24" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="D25" s="4"/>
+      <c r="F25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="D29" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="D30" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -718,9 +759,6 @@
       <c r="B31" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -729,17 +767,189 @@
       <c r="B32" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="A6:A7"/>
@@ -757,6 +967,11 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
